--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">, </t>
   </si>
   <si>
-    <t xml:space="preserve">, efried Beans, Taco Sauce, Cooking Sauce, Dry Seasonings, Chiles/Peppers, Sides</t>
+    <t xml:space="preserve">, Refried Beans, Taco Sauce, Cooking Sauce, Dry Seasonings, Chiles/Peppers, Sides</t>
   </si>
   <si>
     <t xml:space="preserve">Horizontal Block, Vertical Block, Not Blocked</t>
@@ -452,12 +452,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,18 +504,18 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.9666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.3666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,12 +1065,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B16 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1097,7 @@
       <c r="A2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1136,13 +1132,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="B16 A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.6814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.1111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,271 +1194,271 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y29" activeCellId="1" sqref="B16 Y29"/>
+      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="n">
+      <c r="B1" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="n">
+      <c r="D1" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="n">
+      <c r="E1" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="n">
+      <c r="H1" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1484,15 +1480,15 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B16 C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1513,7 +1509,7 @@
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1541,7 +1537,7 @@
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1682,15 +1678,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="B16 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.7518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.3074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.8814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.5148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.6814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,10 +1707,10 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -1754,17 +1750,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B16 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.6037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,13 +1787,13 @@
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -1811,13 +1807,13 @@
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -1831,13 +1827,13 @@
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -1874,15 +1870,15 @@
   <dimension ref="A1:D65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="B16 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.0444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,16 +1986,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="B16 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1851851851852"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2016,7 @@
       <c r="A2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2049,16 +2045,16 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="B16 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.8296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.7148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,16 +2119,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="B16 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5481481481482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,10 +2152,10 @@
       <c r="A2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2190,7 +2186,7 @@
       <c r="A4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2207,7 +2203,7 @@
       <c r="A5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2224,7 +2220,7 @@
       <c r="A6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2241,7 +2237,7 @@
       <c r="A7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2258,7 +2254,7 @@
       <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2275,10 +2271,10 @@
       <c r="A9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -2341,13 +2337,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="B16 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2373,7 @@
       <c r="D2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -2412,13 +2408,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="B16 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="111">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">, </t>
   </si>
   <si>
-    <t xml:space="preserve">, Refried Beans, Taco Sauce, Cooking Sauce, Dry Seasonings, Chiles/Peppers, Sides</t>
+    <t xml:space="preserve">Refried Beans, Taco Sauce, Cooking Sauce, Dry Seasonings, Chiles/Peppers, Sides</t>
   </si>
   <si>
     <t xml:space="preserve">Horizontal Block, Vertical Block, Not Blocked</t>
@@ -343,7 +343,10 @@
     <t xml:space="preserve">Top, Top-Middle, Middle, Middle-Bottom, Bottom, Top-Bottom, Top-Middle-Bottom</t>
   </si>
   <si>
-    <t xml:space="preserve">Tortillas, Shells, Dinner Kits, Salsa/Picante, Refried Beans, Total Sauces (Enchilada, Taco, Cooking)</t>
+    <t xml:space="preserve">Tortillas; Shells; Dinner Kits; Salsa/Picante; Refried Beans; Total Sauces (Enchilada, Taco, Cooking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; </t>
   </si>
   <si>
     <t xml:space="preserve">Adjacent - same section, Adjacent - separate section, Not Adjacent - Same 4ft section, Not adjacent - Not same sections</t>
@@ -510,12 +513,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.9666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.3666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.9259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.837037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,7 +1073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,8 +1140,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.5814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,8 +1202,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,14 +1484,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1583,7 +1586,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
@@ -1594,7 +1597,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>97</v>
@@ -1608,7 +1611,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>97</v>
@@ -1622,7 +1625,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>97</v>
@@ -1636,7 +1639,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>97</v>
@@ -1647,10 +1650,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>97</v>
@@ -1683,10 +1686,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.5148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.6814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.3777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.0518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,12 +1758,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.9740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.3481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,10 +1878,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,11 +1994,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,11 +2053,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.8296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.7148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.5925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,11 +2127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5481481481482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,8 +2345,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,8 +2416,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">shelf count </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;5, 5, 6, 7, 8, &gt;8</t>
+    <t xml:space="preserve">&lt;5, 5, 6, 7, 8, &gt;=9</t>
   </si>
 </sst>
 </file>
@@ -513,12 +513,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.9259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.837037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.8851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.2074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,8 +1140,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.5814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.1481481481482"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,8 +1202,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="10.1925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,14 +1484,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.6592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1686,10 +1686,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.3777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.0518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.3888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.2407407407408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.4259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.7407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,12 +1758,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.3481481481482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,10 +1878,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,11 +1994,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1666666666667"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,11 +2053,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.5925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.4555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,11 +2127,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.2703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,8 +2345,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,8 +2416,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.81851851851852"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
